--- a/Data/category.xlsx
+++ b/Data/category.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT-24\HK241\ĐỒ ÁN KTDL\GEAR STORE\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT-24\HK241\ĐỒ ÁN KTDL\GEAR STORE\GEAR STORE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD756026-E95E-4A09-A962-F6C2D398584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62DD802-C7C3-430B-BF2F-CA60AC5EA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Các phụ kiện khác</t>
   </si>
   <si>
-    <t>Tên danh mục</t>
-  </si>
-  <si>
-    <t>Số lượng sản phẩm</t>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>

--- a/Data/category.xlsx
+++ b/Data/category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT-24\HK241\ĐỒ ÁN KTDL\GEAR STORE\GEAR STORE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62DD802-C7C3-430B-BF2F-CA60AC5EA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA09CA7-42FC-44D1-8E27-E59155573DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
